--- a/input/serial-interval-literature.xlsx
+++ b/input/serial-interval-literature.xlsx
@@ -5,22 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="serial-interval-literature" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="estimates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">estimates!$A$1:$M$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">estimates!$A$1:$M$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">estimates!$A$1:$M$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">estimates!$A$1:$M$13</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t xml:space="preserve">mean_si_estimate</t>
   </si>
@@ -85,7 +91,7 @@
     <t xml:space="preserve">Cereda, D. et al. The early phase of the COVID-19 outbreak in Lombardy, Italy. arXiv:2003.09320 [q-bio] (2020).</t>
   </si>
   <si>
-    <t xml:space="preserve">mean and sd calculated from shape and scale parameters &amp; their sd given</t>
+    <t xml:space="preserve">sd calculated from shape and rate parameters </t>
   </si>
   <si>
     <t xml:space="preserve">China</t>
@@ -103,21 +109,33 @@
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
+    <t xml:space="preserve">empirical</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ganyani et al. 2020 (singapore)</t>
   </si>
   <si>
     <t xml:space="preserve">Ganyani, T. et al. Estimating the generation interval for coronavirus disease (COVID-19) based on symptom onset data, March 2020. Eurosurveillance 25, 2000257 (2020).</t>
   </si>
   <si>
-    <t xml:space="preserve">generation interval</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taijin</t>
   </si>
   <si>
     <t xml:space="preserve">Ganyani et al. 2020 (taijin)</t>
   </si>
   <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwok et al. 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwok, K. O., Wong, V. W. Y., Wei, W. I., Wong, S. Y. S. &amp; Tang, J. W.-T. Epidemiological characteristics of the first 53 laboratory-confirmed cases of COVID-19 epidemic in Hong Kong, 13 February 2020. Eurosurveillance 25, 2000155 (2020). </t>
+  </si>
+  <si>
     <t xml:space="preserve">Wuhan</t>
   </si>
   <si>
@@ -133,33 +151,39 @@
     <t xml:space="preserve">SE Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">lnorm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nishiura et al. 2020</t>
   </si>
   <si>
     <t xml:space="preserve">Nishiura, H., Linton, N. M. &amp; Akhmetzhanov, A. R. Serial interval of novel coronavirus (COVID-19) infections. Int. J. Infect. Dis. 93, 284–286 (2020).</t>
   </si>
   <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son et al. 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son, H. et al. Epidemiological characteristics of and containment measures for COVID-19 in Busan, Korea. Epidemiol Health 42, (2020). </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tindale et al. 2020 (singapore)</t>
   </si>
   <si>
     <t xml:space="preserve">Tindale, L. C. et al. Evidence for transmission of COVID-19 prior to symptom onset. eLife 9, e57149 (2020).</t>
   </si>
   <si>
-    <t xml:space="preserve">sd calculated from shape and scale parameters given</t>
+    <t xml:space="preserve">These figures are from appendix 1 table 3 but very unclear where SD comes from. Value is at odds with statements earlier in the paper.</t>
   </si>
   <si>
     <t xml:space="preserve">Tindale et al. 2020 (taijin)</t>
   </si>
   <si>
+    <t xml:space="preserve">These figures are from appendix 1 table 3 but very unclear where SD comes from</t>
+  </si>
+  <si>
     <t xml:space="preserve">China outside Hubei</t>
   </si>
   <si>
-    <t xml:space="preserve">empirical</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xia et al. 2020</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd calculated from shape and rate parameters given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong</t>
   </si>
   <si>
     <t xml:space="preserve">Zhao et al. 2020</t>
@@ -215,8 +236,10 @@
   <fonts count="4">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -276,8 +299,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,75 +320,73 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="1:18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6020408163265"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.719387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="194.566326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="61.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="47.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -403,22 +428,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>6.678571429</v>
+        <v>6.6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3.795758929</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>11.80357143</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4.883855118</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>3.254357882</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>7.651761983</v>
+        <f aca="false">SQRT(1.87/(0.28^2))</f>
+        <v>4.88385511827762</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>90</v>
@@ -506,150 +526,150 @@
         <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3.78</v>
+        <v>-4.47</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6.78</v>
+        <v>12.51</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.72</v>
+        <v>4.24</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.91</v>
+        <v>4.03</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3.93</v>
+        <v>4.95</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>3.95</v>
+        <v>4.58</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-4.47</v>
+        <v>3.35</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>12.51</v>
+        <v>5.85</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4.24</v>
+        <v>3.28</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>4.03</v>
+        <v>2.18</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>4.95</v>
+        <v>4.01</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>3.95</v>
+        <v>7.5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>3.01</v>
+        <v>5.3</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4.91</v>
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>4.9</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>33</v>
@@ -658,62 +678,62 @@
         <v>15</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>4.7</v>
+        <v>5.54</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3.7</v>
+        <v>4.08</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>6</v>
+        <v>7.01</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1.9</v>
+        <v>2.47</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4.9</v>
+        <v>5.32</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>28</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>4.56</v>
+        <v>4.17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2.69</v>
+        <v>2.44</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3.867693887</v>
+        <v>5.89</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1.06</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>93</v>
@@ -722,33 +742,33 @@
         <v>26</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>3.43</v>
+        <v>2.91</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5.01</v>
+        <v>5.72</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>4.469146165</v>
+        <v>0.935</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>135</v>
@@ -757,19 +777,19 @@
         <v>30</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,19 +803,19 @@
         <v>124</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,19 +829,19 @@
         <v>643</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,19 +855,19 @@
         <v>643</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,19 +881,19 @@
         <v>71</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,13 +907,14 @@
         <v>13</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3.220755174</v>
+        <f aca="false">SQRT(2.39/(0.48^2))</f>
+        <v>3.2207551736959</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>28</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>14</v>
@@ -902,13 +923,13 @@
         <v>15</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -934,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>14</v>
@@ -943,19 +964,21 @@
         <v>15</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>